--- a/TP5_Arboles/p6/p6c.xlsx
+++ b/TP5_Arboles/p6/p6c.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f0d613f702b1599/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F1979D1-C9FA-43CB-8A48-20EAD9027D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4F1979D1-C9FA-43CB-8A48-20EAD9027D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C55B257-A3AA-4EA8-A62C-5BDD9628BC7E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{74FB5B2A-F784-4522-A77D-5B3223ECDFDE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Insertar en un arbol b de orden 5 : 1, 7, 16, 12, 11, 14, 18, 13, 10, 15, 21, 19, 6, 4, 3, 2, 4, 22 y 28.</t>
   </si>
@@ -67,6 +67,27 @@
   </si>
   <si>
     <t>se elimina 14</t>
+  </si>
+  <si>
+    <t>Insertar en un arbol b+ de orden 5 : 1, 7, 16, 12, 11, 14, 18, 13, 10, 15, 21, 19, 6, 4, 3, 2, 4, 22 y 28.</t>
+  </si>
+  <si>
+    <t>Se inserta 14,18,13,10</t>
+  </si>
+  <si>
+    <t>Se inserta 15, se crea nuevo nodo</t>
+  </si>
+  <si>
+    <t>Se insertan 21,19,6,4</t>
+  </si>
+  <si>
+    <t>al insertar 3, se crea nuevo nodo</t>
+  </si>
+  <si>
+    <t>se inserta 2, 4(repetido, no insertado), 22, 28</t>
+  </si>
+  <si>
+    <t>eliminan 19,10,14</t>
   </si>
 </sst>
 </file>
@@ -2167,6 +2188,1172 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B336979D-8A7A-400E-806B-5F68C0D5F391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1514475" y="1924050"/>
+          <a:ext cx="1152525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Conector recto de flecha 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5055BB-88C6-4BB2-8C4E-2B31A979CA6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="781050" y="1895475"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CE2CD4-A957-4089-8578-1DFEE7CEB662}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182475" y="1924050"/>
+          <a:ext cx="1152525" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E26240-0B79-480C-8373-9A4753215A8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11449050" y="1895475"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Conector recto de flecha 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FF8A1AA-A98C-4B64-A1D9-181DD04BEB04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182475" y="4210050"/>
+          <a:ext cx="19050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3890A54-9F2F-41F5-9C03-5DD91692633E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10248900" y="4181475"/>
+          <a:ext cx="1571625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E3366FC-69F5-4061-8201-5DF934E4B2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12582525" y="4171950"/>
+          <a:ext cx="1495425" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Conector recto de flecha 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36164B98-C373-4627-AC9B-44B7BA9C5196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12182475" y="4210050"/>
+          <a:ext cx="19050" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC32D32-6025-463A-AE73-252F5DB8698C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10248900" y="4181475"/>
+          <a:ext cx="1571625" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Conector recto de flecha 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D402E4DC-2A0F-4AA1-823B-CB37E3544E03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12582525" y="4171950"/>
+          <a:ext cx="1495425" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Conector recto de flecha 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DA4F4E1-EA04-4B63-8EC8-5EAEF07B8BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14868525" y="6677025"/>
+          <a:ext cx="352425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Conector recto de flecha 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4FCFCE-6DC2-4078-B31F-EF8DE89D8BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="6648450"/>
+          <a:ext cx="2676525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Conector recto de flecha 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96A83034-55D2-4A45-A459-D57F1467CFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="6667500"/>
+          <a:ext cx="1924050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Conector recto de flecha 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183753E9-1466-4A7A-B688-E57679A4F846}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13354050" y="6686550"/>
+          <a:ext cx="1133475" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Conector recto de flecha 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315904B9-66DF-4053-924F-BFBF9C1E9F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14868525" y="6677025"/>
+          <a:ext cx="352425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector recto de flecha 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5198579-4CFE-4C47-995B-C20129594901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="6648450"/>
+          <a:ext cx="2676525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Conector recto de flecha 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412ACB8B-B7E1-4985-8058-549C5966F0F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="6667500"/>
+          <a:ext cx="1924050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Conector recto de flecha 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEAEFF9F-1917-4C25-86AE-99708B609A31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13354050" y="6686550"/>
+          <a:ext cx="1133475" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Conector recto de flecha 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB0FC1D-9B27-4F28-A544-5C14911FF269}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14868525" y="7820025"/>
+          <a:ext cx="352425" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Conector recto de flecha 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF7169-9861-4E32-A418-26B5B9E8F2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11430000" y="7791450"/>
+          <a:ext cx="2676525" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Conector recto de flecha 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA490A8-2556-44B2-90D5-756F423C99F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15240000" y="7810500"/>
+          <a:ext cx="1924050" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Conector recto de flecha 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3BA2C6-EAC2-47AB-9859-12C1DA452340}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="13354050" y="7829550"/>
+          <a:ext cx="1133475" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2467,18 +3654,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76938FC-BFE8-4424-9D72-BAD629571200}">
-  <dimension ref="A1:Y626"/>
+  <dimension ref="A1:AX626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AT54" sqref="AT54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="27" width="5.7109375" customWidth="1"/>
+    <col min="1" max="102" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2501,7 +3688,7 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
@@ -2525,8 +3712,29 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
@@ -2550,8 +3758,29 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2573,8 +3802,27 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2596,8 +3844,27 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2629,8 +3896,37 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>12</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>16</v>
+      </c>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2652,8 +3948,27 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2675,8 +3990,27 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2698,8 +4032,27 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2725,8 +4078,31 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG10" s="3"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2748,8 +4124,27 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2771,8 +4166,27 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -2802,8 +4216,35 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="3"/>
+      <c r="AF13" s="3"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="3">
+        <v>12</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>16</v>
+      </c>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2826,7 +4267,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2849,7 +4290,7 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2872,7 +4313,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2894,8 +4335,28 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2921,8 +4382,24 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2944,8 +4421,24 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2967,8 +4460,40 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>7</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>10</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>11</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="3">
+        <v>13</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>14</v>
+      </c>
+      <c r="AJ20" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK20" s="3">
+        <v>18</v>
+      </c>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="3">
         <v>1</v>
@@ -3003,7 +4528,7 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3025,8 +4550,25 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>15</v>
+      </c>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AN22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3048,8 +4590,18 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3071,8 +4623,18 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3098,8 +4660,38 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>10</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>11</v>
+      </c>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="3">
+        <v>13</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>14</v>
+      </c>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>18</v>
+      </c>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3122,7 +4714,7 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3145,7 +4737,7 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="3">
         <v>1</v>
@@ -3179,8 +4771,25 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="3">
+        <v>10</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>15</v>
+      </c>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AN28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3202,8 +4811,18 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3225,8 +4844,18 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3248,8 +4877,46 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z31" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>4</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>6</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>7</v>
+      </c>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="3">
+        <v>11</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>12</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>13</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>14</v>
+      </c>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="3">
+        <v>16</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>18</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>19</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3278,7 +4945,7 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3301,7 +4968,7 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3324,7 +4991,7 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="3">
         <v>1</v>
@@ -3364,8 +5031,24 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AL35" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>10</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>15</v>
+      </c>
+      <c r="AO35" s="3"/>
+      <c r="AS35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3387,8 +5070,18 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+    </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3410,8 +5103,18 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3437,8 +5140,50 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ38" s="3"/>
+      <c r="AK38" s="3"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="3">
+        <v>11</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>12</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>13</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>14</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>16</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>18</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>19</v>
+      </c>
+      <c r="AU38" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3461,7 +5206,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3484,7 +5229,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="3">
         <v>1</v>
@@ -3524,8 +5269,24 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
       <c r="U41" s="1"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AL41" s="3">
+        <v>4</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>12</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>18</v>
+      </c>
+      <c r="AO41" s="3"/>
+      <c r="AS41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3547,8 +5308,18 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3570,8 +5341,18 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3597,8 +5378,56 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AC44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>3</v>
+      </c>
+      <c r="AF44" s="3"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="3">
+        <v>6</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>7</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>10</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>11</v>
+      </c>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="3">
+        <v>13</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>14</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>15</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>16</v>
+      </c>
+      <c r="AR44" s="3">
+        <v>19</v>
+      </c>
+      <c r="AS44" s="3">
+        <v>21</v>
+      </c>
+      <c r="AT44" s="3">
+        <v>22</v>
+      </c>
+      <c r="AU44" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3621,7 +5450,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3644,7 +5473,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="3">
         <v>1</v>
@@ -3687,7 +5516,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3710,7 +5539,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3732,8 +5561,24 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AO49" s="3">
+        <v>4</v>
+      </c>
+      <c r="AP49" s="3">
+        <v>12</v>
+      </c>
+      <c r="AQ49" s="3">
+        <v>18</v>
+      </c>
+      <c r="AR49" s="3"/>
+      <c r="AV49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3759,8 +5604,18 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3782,8 +5637,18 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3805,8 +5670,50 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AF52" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="3">
+        <v>6</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>7</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>11</v>
+      </c>
+      <c r="AN52" s="3"/>
+      <c r="AO52" s="1"/>
+      <c r="AP52" s="3">
+        <v>13</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>15</v>
+      </c>
+      <c r="AR52" s="3">
+        <v>16</v>
+      </c>
+      <c r="AS52" s="3"/>
+      <c r="AU52" s="3">
+        <v>21</v>
+      </c>
+      <c r="AV52" s="3">
+        <v>22</v>
+      </c>
+      <c r="AW52" s="3">
+        <v>28</v>
+      </c>
+      <c r="AX52" s="3"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="3">
         <v>1</v>
@@ -3852,7 +5759,7 @@
       <c r="X53" s="3"/>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3875,7 +5782,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3898,7 +5805,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3921,7 +5828,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3950,7 +5857,7 @@
       </c>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3973,7 +5880,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -3996,7 +5903,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="3">
         <v>1</v>
@@ -4050,7 +5957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -4073,7 +5980,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -4096,7 +6003,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -4125,7 +6032,7 @@
       </c>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
